--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H2">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>41.954847224523</v>
+        <v>433.1213436848654</v>
       </c>
       <c r="R2">
-        <v>377.593625020707</v>
+        <v>3898.092093163788</v>
       </c>
       <c r="S2">
-        <v>0.0002948358947492107</v>
+        <v>0.002132288336276714</v>
       </c>
       <c r="T2">
-        <v>0.0002948358947492108</v>
+        <v>0.002132288336276714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H3">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I3">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J3">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>3431.023330809172</v>
+        <v>6753.892187427537</v>
       </c>
       <c r="R3">
-        <v>30879.20997728254</v>
+        <v>60785.02968684783</v>
       </c>
       <c r="S3">
-        <v>0.02411136973592068</v>
+        <v>0.0332499096285598</v>
       </c>
       <c r="T3">
-        <v>0.02411136973592068</v>
+        <v>0.03324990962855979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H4">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I4">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J4">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>3185.616427503543</v>
+        <v>7991.065609960299</v>
       </c>
       <c r="R4">
-        <v>28670.54784753189</v>
+        <v>71919.59048964269</v>
       </c>
       <c r="S4">
-        <v>0.02238678321731083</v>
+        <v>0.03934060568240641</v>
       </c>
       <c r="T4">
-        <v>0.02238678321731083</v>
+        <v>0.03934060568240641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H5">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I5">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J5">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>551.7708629361262</v>
+        <v>762.5900572523523</v>
       </c>
       <c r="R5">
-        <v>4965.937766425136</v>
+        <v>6863.31051527117</v>
       </c>
       <c r="S5">
-        <v>0.003877546143827401</v>
+        <v>0.003754287125648761</v>
       </c>
       <c r="T5">
-        <v>0.003877546143827401</v>
+        <v>0.00375428712564876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H6">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I6">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J6">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>1285.389992415717</v>
+        <v>2584.947644447254</v>
       </c>
       <c r="R6">
-        <v>11568.50993174146</v>
+        <v>23264.52880002529</v>
       </c>
       <c r="S6">
-        <v>0.009033023204385603</v>
+        <v>0.01272588800461243</v>
       </c>
       <c r="T6">
-        <v>0.009033023204385605</v>
+        <v>0.01272588800461243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H7">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I7">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J7">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>3015.364160190299</v>
+        <v>11431.04722028125</v>
       </c>
       <c r="R7">
-        <v>27138.27744171269</v>
+        <v>102879.4249825313</v>
       </c>
       <c r="S7">
-        <v>0.02119034268928904</v>
+        <v>0.05627588899652231</v>
       </c>
       <c r="T7">
-        <v>0.02119034268928904</v>
+        <v>0.05627588899652231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>703.093093</v>
       </c>
       <c r="I8">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J8">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>409.915225801581</v>
+        <v>2149.765254209855</v>
       </c>
       <c r="R8">
-        <v>3689.237032214229</v>
+        <v>19347.88728788869</v>
       </c>
       <c r="S8">
-        <v>0.002880661720057258</v>
+        <v>0.01058345298406682</v>
       </c>
       <c r="T8">
-        <v>0.002880661720057258</v>
+        <v>0.01058345298406682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>703.093093</v>
       </c>
       <c r="I9">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J9">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>33522.43653403327</v>
@@ -1013,10 +1013,10 @@
         <v>301701.9288062994</v>
       </c>
       <c r="S9">
-        <v>0.235577489218177</v>
+        <v>0.1650334287776482</v>
       </c>
       <c r="T9">
-        <v>0.235577489218177</v>
+        <v>0.1650334287776482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>703.093093</v>
       </c>
       <c r="I10">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J10">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>31124.71534478784</v>
+        <v>39663.05388289323</v>
       </c>
       <c r="R10">
-        <v>280122.4381030906</v>
+        <v>356967.484946039</v>
       </c>
       <c r="S10">
-        <v>0.2187276060948485</v>
+        <v>0.1952641411205599</v>
       </c>
       <c r="T10">
-        <v>0.2187276060948485</v>
+        <v>0.1952641411205598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>703.093093</v>
       </c>
       <c r="I11">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J11">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>5391.016600794376</v>
+        <v>3785.058465001008</v>
       </c>
       <c r="R11">
-        <v>48519.14940714939</v>
+        <v>34065.52618500907</v>
       </c>
       <c r="S11">
-        <v>0.03788513862526954</v>
+        <v>0.01863412213395641</v>
       </c>
       <c r="T11">
-        <v>0.03788513862526954</v>
+        <v>0.01863412213395641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>703.093093</v>
       </c>
       <c r="I12">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J12">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>12558.76171266815</v>
+        <v>12830.19345735027</v>
       </c>
       <c r="R12">
-        <v>113028.8554140134</v>
+        <v>115471.7411161524</v>
       </c>
       <c r="S12">
-        <v>0.08825616088365447</v>
+        <v>0.0631639891687881</v>
       </c>
       <c r="T12">
-        <v>0.08825616088365447</v>
+        <v>0.0631639891687881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>703.093093</v>
       </c>
       <c r="I13">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J13">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>29461.28427029338</v>
+        <v>56737.14420149339</v>
       </c>
       <c r="R13">
-        <v>265151.5584326404</v>
+        <v>510634.2978134405</v>
       </c>
       <c r="S13">
-        <v>0.2070379153523793</v>
+        <v>0.2793211477070918</v>
       </c>
       <c r="T13">
-        <v>0.2070379153523793</v>
+        <v>0.2793211477070918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H14">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I14">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J14">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>13.062966379719</v>
+        <v>49.520813727372</v>
       </c>
       <c r="R14">
-        <v>117.566697417471</v>
+        <v>445.687323546348</v>
       </c>
       <c r="S14">
-        <v>9.179943761997808E-05</v>
+        <v>0.0002437946202684374</v>
       </c>
       <c r="T14">
-        <v>9.179943761997809E-05</v>
+        <v>0.0002437946202684374</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H15">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I15">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J15">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>1068.275667374958</v>
+        <v>772.2044683895801</v>
       </c>
       <c r="R15">
-        <v>9614.481006374621</v>
+        <v>6949.84021550622</v>
       </c>
       <c r="S15">
-        <v>0.007507261569652562</v>
+        <v>0.003801619581153415</v>
       </c>
       <c r="T15">
-        <v>0.007507261569652563</v>
+        <v>0.003801619581153414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H16">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I16">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J16">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>991.8663287810946</v>
+        <v>913.6563628736271</v>
       </c>
       <c r="R16">
-        <v>8926.796959029853</v>
+        <v>8222.907265862643</v>
       </c>
       <c r="S16">
-        <v>0.006970298210187649</v>
+        <v>0.004497997695855679</v>
       </c>
       <c r="T16">
-        <v>0.006970298210187649</v>
+        <v>0.004497997695855679</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H17">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I17">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J17">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>171.7981284324675</v>
+        <v>87.190531536161</v>
       </c>
       <c r="R17">
-        <v>1546.183155892208</v>
+        <v>784.714783825449</v>
       </c>
       <c r="S17">
-        <v>0.00120730400093126</v>
+        <v>0.0004292454208019663</v>
       </c>
       <c r="T17">
-        <v>0.00120730400093126</v>
+        <v>0.0004292454208019663</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H18">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I18">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J18">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>400.2161220107905</v>
+        <v>295.549301973027</v>
       </c>
       <c r="R18">
-        <v>3601.945098097115</v>
+        <v>2659.943717757243</v>
       </c>
       <c r="S18">
-        <v>0.002812501682931639</v>
+        <v>0.001455011023077944</v>
       </c>
       <c r="T18">
-        <v>0.002812501682931639</v>
+        <v>0.001455011023077944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H19">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I19">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J19">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>938.8569677391629</v>
+        <v>1306.965746107889</v>
       </c>
       <c r="R19">
-        <v>8449.712709652465</v>
+        <v>11762.691714971</v>
       </c>
       <c r="S19">
-        <v>0.006597777192312351</v>
+        <v>0.006434288812990736</v>
       </c>
       <c r="T19">
-        <v>0.006597777192312351</v>
+        <v>0.006434288812990736</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H20">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I20">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J20">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>39.47698008221401</v>
+        <v>222.1765262823427</v>
       </c>
       <c r="R20">
-        <v>355.292820739926</v>
+        <v>1999.588736541084</v>
       </c>
       <c r="S20">
-        <v>0.0002774227893680209</v>
+        <v>0.001093791433956687</v>
       </c>
       <c r="T20">
-        <v>0.0002774227893680209</v>
+        <v>0.001093791433956687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H21">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I21">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J21">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>3228.385959007748</v>
+        <v>3464.517108119919</v>
       </c>
       <c r="R21">
-        <v>29055.47363106973</v>
+        <v>31180.65397307926</v>
       </c>
       <c r="S21">
-        <v>0.02268734427099704</v>
+        <v>0.01705607338032778</v>
       </c>
       <c r="T21">
-        <v>0.02268734427099705</v>
+        <v>0.01705607338032778</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H22">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I22">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J22">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>2997.472868513368</v>
+        <v>4099.145018831147</v>
       </c>
       <c r="R22">
-        <v>26977.25581662032</v>
+        <v>36892.30516948033</v>
       </c>
       <c r="S22">
-        <v>0.02106461240211727</v>
+        <v>0.02018039341584604</v>
       </c>
       <c r="T22">
-        <v>0.02106461240211727</v>
+        <v>0.02018039341584604</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H23">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I23">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J23">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>519.1830934220054</v>
+        <v>391.1827767625686</v>
       </c>
       <c r="R23">
-        <v>4672.647840798048</v>
+        <v>3520.644990863117</v>
       </c>
       <c r="S23">
-        <v>0.00364853698712236</v>
+        <v>0.001925821676546275</v>
       </c>
       <c r="T23">
-        <v>0.00364853698712236</v>
+        <v>0.001925821676546274</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H24">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I24">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J24">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>1209.474434668243</v>
+        <v>1325.990271869125</v>
       </c>
       <c r="R24">
-        <v>10885.26991201419</v>
+        <v>11933.91244682212</v>
       </c>
       <c r="S24">
-        <v>0.008499529868703073</v>
+        <v>0.006527947957189813</v>
       </c>
       <c r="T24">
-        <v>0.008499529868703073</v>
+        <v>0.006527947957189813</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H25">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I25">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J25">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>2837.275756372577</v>
+        <v>5863.73865015386</v>
       </c>
       <c r="R25">
-        <v>25535.48180735319</v>
+        <v>52773.64785138474</v>
       </c>
       <c r="S25">
-        <v>0.01993883404707985</v>
+        <v>0.02886761807747629</v>
       </c>
       <c r="T25">
-        <v>0.01993883404707985</v>
+        <v>0.02886761807747629</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H26">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I26">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J26">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>1.820072381889</v>
+        <v>14.003126269548</v>
       </c>
       <c r="R26">
-        <v>16.380651437001</v>
+        <v>126.028136425932</v>
       </c>
       <c r="S26">
-        <v>1.27904808317097E-05</v>
+        <v>6.893842395744909E-05</v>
       </c>
       <c r="T26">
-        <v>1.279048083170971E-05</v>
+        <v>6.893842395744907E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H27">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I27">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J27">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>148.8436073334689</v>
+        <v>218.35821875422</v>
       </c>
       <c r="R27">
-        <v>1339.59246600122</v>
+        <v>1965.22396878798</v>
       </c>
       <c r="S27">
-        <v>0.001045992085515512</v>
+        <v>0.001074993624231436</v>
       </c>
       <c r="T27">
-        <v>0.001045992085515512</v>
+        <v>0.001074993624231435</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H28">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I28">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J28">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>138.1974399278013</v>
+        <v>258.356930213843</v>
       </c>
       <c r="R28">
-        <v>1243.776959350212</v>
+        <v>2325.212371924587</v>
       </c>
       <c r="S28">
-        <v>0.0009711765993357604</v>
+        <v>0.00127191023237141</v>
       </c>
       <c r="T28">
-        <v>0.0009711765993357604</v>
+        <v>0.00127191023237141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H29">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I29">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J29">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>23.93675523084977</v>
+        <v>24.655088047049</v>
       </c>
       <c r="R29">
-        <v>215.430797077648</v>
+        <v>221.895792423441</v>
       </c>
       <c r="S29">
-        <v>0.0001682145237739138</v>
+        <v>0.0001213788178281251</v>
       </c>
       <c r="T29">
-        <v>0.0001682145237739138</v>
+        <v>0.000121378817828125</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H30">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I30">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J30">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>55.76239647906277</v>
+        <v>83.57322674844301</v>
       </c>
       <c r="R30">
-        <v>501.861568311565</v>
+        <v>752.1590407359871</v>
       </c>
       <c r="S30">
-        <v>0.000391867856681288</v>
+        <v>0.0004114371624003186</v>
       </c>
       <c r="T30">
-        <v>0.0003918678566812881</v>
+        <v>0.0004114371624003185</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H31">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I31">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J31">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>130.8116080111093</v>
+        <v>369.5740234294011</v>
       </c>
       <c r="R31">
-        <v>1177.304472099984</v>
+        <v>3326.166210864609</v>
       </c>
       <c r="S31">
-        <v>0.0009192729813825927</v>
+        <v>0.001819440189312715</v>
       </c>
       <c r="T31">
-        <v>0.0009192729813825927</v>
+        <v>0.001819440189312715</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H32">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I32">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J32">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>12.410334234834</v>
+        <v>68.249583829804</v>
       </c>
       <c r="R32">
-        <v>111.693008113506</v>
+        <v>614.246254468236</v>
       </c>
       <c r="S32">
-        <v>8.721309313040036E-05</v>
+        <v>0.0003359977375345313</v>
       </c>
       <c r="T32">
-        <v>8.72130931304004E-05</v>
+        <v>0.0003359977375345312</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H33">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I33">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J33">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>1014.904096181925</v>
+        <v>1064.252172616727</v>
       </c>
       <c r="R33">
-        <v>9134.13686563732</v>
+        <v>9578.269553550541</v>
       </c>
       <c r="S33">
-        <v>0.007132195135429641</v>
+        <v>0.005239391980135046</v>
       </c>
       <c r="T33">
-        <v>0.007132195135429644</v>
+        <v>0.005239391980135045</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H34">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I34">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J34">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>942.3122052554746</v>
+        <v>1259.201168883672</v>
       </c>
       <c r="R34">
-        <v>8480.809847299271</v>
+        <v>11332.81051995305</v>
       </c>
       <c r="S34">
-        <v>0.006622058726201417</v>
+        <v>0.006199140274625264</v>
       </c>
       <c r="T34">
-        <v>0.006622058726201418</v>
+        <v>0.006199140274625263</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H35">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I35">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J35">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>163.2150104953209</v>
+        <v>120.1659876593103</v>
       </c>
       <c r="R35">
-        <v>1468.935094457888</v>
+        <v>1081.493888933793</v>
       </c>
       <c r="S35">
-        <v>0.00114698650666906</v>
+        <v>0.0005915860246535166</v>
       </c>
       <c r="T35">
-        <v>0.00114698650666906</v>
+        <v>0.0005915860246535164</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H36">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I36">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J36">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>380.2211301740988</v>
+        <v>407.326038136139</v>
       </c>
       <c r="R36">
-        <v>3421.99017156689</v>
+        <v>3665.934343225251</v>
       </c>
       <c r="S36">
-        <v>0.00267198773284798</v>
+        <v>0.002005296143547781</v>
       </c>
       <c r="T36">
-        <v>0.00267198773284798</v>
+        <v>0.00200529614354778</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H37">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I37">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J37">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>891.9512176373228</v>
+        <v>1801.260147758206</v>
       </c>
       <c r="R37">
-        <v>8027.560958735905</v>
+        <v>16211.34132982386</v>
       </c>
       <c r="S37">
-        <v>0.006268149039308961</v>
+        <v>0.00886773662777382</v>
       </c>
       <c r="T37">
-        <v>0.006268149039308962</v>
+        <v>0.008867736627773818</v>
       </c>
     </row>
   </sheetData>
